--- a/workSpace/xxt3_bugs.xlsx
+++ b/workSpace/xxt3_bugs.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$16</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -71,10 +74,6 @@
   </si>
   <si>
     <t>出现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现，原因系 sql写错，引用错的字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出现、后台没有处理 0、1的对应处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目前后台应用程序没跑，待日后上线才能测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +133,6 @@
   </si>
   <si>
     <t>添加学生时，无论住宿情况填入什么，保存后，住宿情况都被保存为“走读”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现，原因是输出页面的vo 无赋值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -210,6 +201,18 @@
   </si>
   <si>
     <t>学生数据管理-数据导出，导出学生数据时，窗口一直处于应用程序未响应状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现，原因系 sql写错，引用错的字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现、后台没有处理 0、1的对应处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现，原因是输出页面的vo 无赋值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,17 +578,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="106.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="93.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="86.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -651,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>689</v>
       </c>
@@ -673,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -690,10 +694,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -707,13 +711,13 @@
         <v>686</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -730,10 +734,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1">
         <v>-1</v>
@@ -747,10 +751,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -767,10 +771,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1">
         <v>-1</v>
@@ -787,10 +791,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1">
         <v>-1</v>
@@ -807,10 +811,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -827,10 +831,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -847,10 +851,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1">
         <v>-1</v>
@@ -867,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -879,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>691</v>
       </c>
@@ -887,10 +891,17 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F16">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
